--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1902634.443864181</v>
+        <v>-1903347.048338223</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.869590088013268</v>
+        <v>155.9655052029062</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384196</v>
+        <v>62.66716559384205</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718769</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550868</v>
+        <v>49.17968824550876</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065502</v>
+        <v>44.13476116065511</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673099</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>62.75865392924541</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>78.67691840512597</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851665</v>
+        <v>13.25780256851673</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134804</v>
+        <v>36.64054962134813</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437492</v>
+        <v>58.89840834437501</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084699</v>
+        <v>62.31927159084708</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245634</v>
+        <v>88.37493425245643</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491535</v>
+        <v>38.98326511491544</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947037</v>
+        <v>45.05463680947045</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650161</v>
+        <v>25.09353465650169</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412742</v>
+        <v>57.1057683041275</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605257</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989465</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9810577647801</v>
+        <v>111.9810577647802</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961317</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.442510317672</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>182.616686312781</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718766</v>
+        <v>16.53078872718777</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550866</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845967</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701508</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>43.23399750770773</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810642</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>60.7498631273895</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851662</v>
+        <v>68.63600674030984</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134801</v>
+        <v>36.64054962134813</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437489</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084697</v>
+        <v>62.31927159084708</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245631</v>
+        <v>88.37493425245643</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491533</v>
+        <v>38.98326511491544</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947034</v>
+        <v>45.05463680947045</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650158</v>
+        <v>25.09353465650169</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412739</v>
+        <v>57.1057683041275</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605254</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989463</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W16" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368725</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961314</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="17">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12.92302832803665</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>160.6347892785765</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577247</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911767</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D20" t="n">
         <v>40.34756785016606</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>52.45818464705464</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>160.6347892785765</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>187.9862072499394</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194014</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>85.71552570171588</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
         <v>52.45818464705464</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.811350158648208</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036445</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>14.04236090203116</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U26" t="n">
         <v>36.68353794325347</v>
@@ -2640,10 +2640,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>111.8995022122421</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668499</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>53.23760690897882</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.33090036933336</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="28">
@@ -2792,7 +2792,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D29" t="n">
         <v>124.3051829741945</v>
@@ -2804,13 +2804,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036447</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203115</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177503</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W29" t="n">
         <v>124.4294871577341</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870549</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089743</v>
+        <v>113.0409414580784</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2934,10 +2934,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>48.15721001178002</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E32" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H32" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.5298382503645</v>
+        <v>27.52983825036444</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203121</v>
+        <v>14.04236090203115</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177562</v>
+        <v>8.997433817177503</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325353</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="33">
@@ -3114,13 +3114,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>140.5942146166793</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870577</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089746</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736953</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897888</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437889</v>
+        <v>95.95424107921589</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992901</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>35.31549150358651</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>184.3734607329556</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>4.682762785903286</v>
       </c>
       <c r="U39" t="n">
-        <v>24.59790601536302</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>80.2610735253393</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>61.24141571338784</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D44" t="n">
-        <v>96.77534472383005</v>
+        <v>96.77534472383007</v>
       </c>
       <c r="E44" t="n">
         <v>130.4820971432389</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2024347216162</v>
+        <v>162.2024347216163</v>
       </c>
       <c r="G44" t="n">
         <v>177.8410220272076</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889013</v>
+        <v>9.153699692889042</v>
       </c>
       <c r="V44" t="n">
-        <v>79.88296869075478</v>
+        <v>79.88296869075481</v>
       </c>
       <c r="W44" t="n">
-        <v>96.89964890736965</v>
+        <v>96.89964890736968</v>
       </c>
       <c r="X44" t="n">
         <v>118.7858993763089</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>15.70120846489729</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668499</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R45" t="n">
-        <v>42.07407817852089</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.70776865861436</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.65973382876775</v>
+        <v>47.65973382876778</v>
       </c>
       <c r="V46" t="n">
-        <v>4.112200266052668</v>
+        <v>4.112200266052696</v>
       </c>
       <c r="W46" t="n">
-        <v>49.31389217093809</v>
+        <v>49.31389217093812</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.29383428713263</v>
+        <v>587.446160027685</v>
       </c>
       <c r="C11" t="n">
-        <v>82.29383428713263</v>
+        <v>587.446160027685</v>
       </c>
       <c r="D11" t="n">
-        <v>82.29383428713263</v>
+        <v>426.3931193027636</v>
       </c>
       <c r="E11" t="n">
-        <v>82.29383428713263</v>
+        <v>426.3931193027636</v>
       </c>
       <c r="F11" t="n">
-        <v>82.29383428713263</v>
+        <v>235.9260717769237</v>
       </c>
       <c r="G11" t="n">
-        <v>82.29383428713263</v>
+        <v>235.9260717769237</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055358</v>
+        <v>78.38515743055365</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>97.54238483187069</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K11" t="n">
-        <v>267.4711326400899</v>
+        <v>267.47113264009</v>
       </c>
       <c r="L11" t="n">
-        <v>314.2444708703839</v>
+        <v>314.244470870384</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935357</v>
+        <v>395.1647815935358</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267738</v>
+        <v>470.5520315267739</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602034</v>
+        <v>504.8287151602036</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381373</v>
+        <v>666.4818518381375</v>
       </c>
       <c r="Q11" t="n">
         <v>754.2495082023263</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112277</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S11" t="n">
-        <v>687.8752890379866</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="T11" t="n">
-        <v>643.294722209042</v>
+        <v>659.9924886001405</v>
       </c>
       <c r="U11" t="n">
-        <v>570.7483936365865</v>
+        <v>587.446160027685</v>
       </c>
       <c r="V11" t="n">
-        <v>426.7583590056806</v>
+        <v>587.446160027685</v>
       </c>
       <c r="W11" t="n">
-        <v>265.5797584994062</v>
+        <v>587.446160027685</v>
       </c>
       <c r="X11" t="n">
-        <v>82.29383428713263</v>
+        <v>587.446160027685</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.29383428713263</v>
+        <v>587.446160027685</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400.3349882199049</v>
+        <v>264.2656565527992</v>
       </c>
       <c r="C12" t="n">
-        <v>336.9424084933943</v>
+        <v>254.9843411994549</v>
       </c>
       <c r="D12" t="n">
-        <v>336.9424084933943</v>
+        <v>254.9843411994549</v>
       </c>
       <c r="E12" t="n">
-        <v>336.9424084933943</v>
+        <v>254.9843411994549</v>
       </c>
       <c r="F12" t="n">
-        <v>176.5146922106384</v>
+        <v>94.55662491669904</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5146922106384</v>
+        <v>94.55662491669904</v>
       </c>
       <c r="H12" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N12" t="n">
         <v>538.8471199287434</v>
@@ -5142,28 +5142,28 @@
         <v>747.33384509054</v>
       </c>
       <c r="R12" t="n">
-        <v>747.33384509054</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243615</v>
+        <v>597.8727936572562</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411817</v>
+        <v>560.8621374740763</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791868</v>
+        <v>501.3687957120814</v>
       </c>
       <c r="V12" t="n">
-        <v>574.4893681965131</v>
+        <v>438.4200365294076</v>
       </c>
       <c r="W12" t="n">
-        <v>485.2217578404965</v>
+        <v>349.1524261733909</v>
       </c>
       <c r="X12" t="n">
-        <v>445.8447223708851</v>
+        <v>309.7753907037794</v>
       </c>
       <c r="Y12" t="n">
-        <v>400.3349882199049</v>
+        <v>264.2656565527992</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404653</v>
+        <v>15.79059153703773</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404653</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="D13" t="n">
-        <v>47.90051924715262</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="E13" t="n">
-        <v>84.18749227835957</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="F13" t="n">
-        <v>123.1962317134071</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="G13" t="n">
-        <v>123.1962317134071</v>
+        <v>37.07707007794463</v>
       </c>
       <c r="H13" t="n">
-        <v>135.5777575540148</v>
+        <v>49.45859591855228</v>
       </c>
       <c r="I13" t="n">
-        <v>135.5777575540148</v>
+        <v>62.80499776746258</v>
       </c>
       <c r="J13" t="n">
-        <v>135.5777575540148</v>
+        <v>100.8977524085873</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5777575540148</v>
+        <v>100.8977524085873</v>
       </c>
       <c r="L13" t="n">
-        <v>280.3159970092728</v>
+        <v>100.8977524085873</v>
       </c>
       <c r="M13" t="n">
-        <v>280.3159970092728</v>
+        <v>100.8977524085873</v>
       </c>
       <c r="N13" t="n">
-        <v>440.5302285330373</v>
+        <v>261.1119839323517</v>
       </c>
       <c r="O13" t="n">
-        <v>440.5302285330373</v>
+        <v>400.5753329514393</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260457</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577484</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U13" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456489</v>
+        <v>54.28865025456497</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360.5993301948071</v>
+        <v>176.1380308889679</v>
       </c>
       <c r="C14" t="n">
-        <v>360.5993301948071</v>
+        <v>176.1380308889679</v>
       </c>
       <c r="D14" t="n">
-        <v>199.5462894698859</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E14" t="n">
-        <v>199.5462894698859</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F14" t="n">
         <v>15.08499016404653</v>
@@ -5276,52 +5276,52 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567087</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>285.574521864928</v>
+        <v>267.47113264009</v>
       </c>
       <c r="L14" t="n">
-        <v>332.347860095222</v>
+        <v>314.244470870384</v>
       </c>
       <c r="M14" t="n">
-        <v>413.2681708183737</v>
+        <v>395.1647815935358</v>
       </c>
       <c r="N14" t="n">
-        <v>488.6554207516119</v>
+        <v>470.5520315267739</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4818518381373</v>
+        <v>504.8287151602036</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381373</v>
+        <v>666.4818518381375</v>
       </c>
       <c r="Q14" t="n">
         <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112277</v>
+        <v>737.5517418112275</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379866</v>
+        <v>737.5517418112275</v>
       </c>
       <c r="T14" t="n">
-        <v>687.8752890379866</v>
+        <v>737.5517418112275</v>
       </c>
       <c r="U14" t="n">
-        <v>687.8752890379866</v>
+        <v>737.5517418112275</v>
       </c>
       <c r="V14" t="n">
-        <v>543.8852544070807</v>
+        <v>593.5617071803216</v>
       </c>
       <c r="W14" t="n">
-        <v>543.8852544070807</v>
+        <v>593.5617071803216</v>
       </c>
       <c r="X14" t="n">
-        <v>360.5993301948071</v>
+        <v>410.275782968048</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.5993301948071</v>
+        <v>366.6050784148078</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.72980362586486</v>
+        <v>77.35437081744591</v>
       </c>
       <c r="C15" t="n">
-        <v>76.44848827252078</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D15" t="n">
-        <v>76.44848827252078</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E15" t="n">
-        <v>76.44848827252078</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
@@ -5382,25 +5382,25 @@
         <v>611.2645134234348</v>
       </c>
       <c r="S15" t="n">
-        <v>597.8727936572564</v>
+        <v>541.9352136857481</v>
       </c>
       <c r="T15" t="n">
-        <v>560.8621374740766</v>
+        <v>504.9245575025681</v>
       </c>
       <c r="U15" t="n">
-        <v>501.3687957120817</v>
+        <v>314.4575099767281</v>
       </c>
       <c r="V15" t="n">
-        <v>438.420036529408</v>
+        <v>251.5087507940544</v>
       </c>
       <c r="W15" t="n">
-        <v>349.1524261733915</v>
+        <v>162.2411404380377</v>
       </c>
       <c r="X15" t="n">
-        <v>309.7753907037801</v>
+        <v>122.8641049684262</v>
       </c>
       <c r="Y15" t="n">
-        <v>264.2656565528</v>
+        <v>77.35437081744591</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.79059153703784</v>
+        <v>15.79059153703773</v>
       </c>
       <c r="C16" t="n">
-        <v>15.79059153703784</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="D16" t="n">
-        <v>15.79059153703784</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="E16" t="n">
-        <v>15.79059153703784</v>
+        <v>63.83130823730158</v>
       </c>
       <c r="F16" t="n">
-        <v>15.79059153703784</v>
+        <v>102.840047672349</v>
       </c>
       <c r="G16" t="n">
-        <v>15.79059153703784</v>
+        <v>102.840047672349</v>
       </c>
       <c r="H16" t="n">
-        <v>15.79059153703784</v>
+        <v>102.840047672349</v>
       </c>
       <c r="I16" t="n">
-        <v>15.79059153703784</v>
+        <v>102.840047672349</v>
       </c>
       <c r="J16" t="n">
-        <v>15.79059153703784</v>
+        <v>102.840047672349</v>
       </c>
       <c r="K16" t="n">
-        <v>125.9946004980356</v>
+        <v>213.0440566333467</v>
       </c>
       <c r="L16" t="n">
-        <v>125.9946004980356</v>
+        <v>213.0440566333467</v>
       </c>
       <c r="M16" t="n">
-        <v>125.9946004980356</v>
+        <v>349.9613012161996</v>
       </c>
       <c r="N16" t="n">
-        <v>261.1119839323505</v>
+        <v>349.9613012161996</v>
       </c>
       <c r="O16" t="n">
-        <v>400.5753329514383</v>
+        <v>349.9613012161996</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612853</v>
+        <v>468.6318884260465</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577483</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S16" t="n">
-        <v>436.216321211155</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272635</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791729</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701884</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.3187574098045</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456486</v>
+        <v>54.28865025456497</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340412</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844275</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F17" t="n">
         <v>187.818940401909</v>
@@ -5510,31 +5510,31 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897389</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J17" t="n">
-        <v>225.1253958967706</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="K17" t="n">
-        <v>225.1253958967706</v>
+        <v>326.6639080996857</v>
       </c>
       <c r="L17" t="n">
-        <v>271.8987341270646</v>
+        <v>373.4372463299798</v>
       </c>
       <c r="M17" t="n">
-        <v>352.8190448502164</v>
+        <v>454.3575570531315</v>
       </c>
       <c r="N17" t="n">
-        <v>428.2062947834545</v>
+        <v>529.7448069863697</v>
       </c>
       <c r="O17" t="n">
-        <v>462.4829784168841</v>
+        <v>564.0214906197992</v>
       </c>
       <c r="P17" t="n">
-        <v>462.4829784168841</v>
+        <v>564.0214906197992</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4829784168841</v>
+        <v>564.0214906197992</v>
       </c>
       <c r="R17" t="n">
         <v>564.0214906197992</v>
@@ -5558,7 +5558,7 @@
         <v>626.6887139059208</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.07305546410173</v>
+        <v>378.3309446377648</v>
       </c>
       <c r="C18" t="n">
-        <v>68.07305546410173</v>
+        <v>188.9186703707286</v>
       </c>
       <c r="D18" t="n">
-        <v>68.07305546410173</v>
+        <v>28.13855413176032</v>
       </c>
       <c r="E18" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F18" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G18" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H18" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
@@ -5616,28 +5616,28 @@
         <v>747.33384509054</v>
       </c>
       <c r="R18" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S18" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="T18" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="U18" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="V18" t="n">
-        <v>420.7974658975948</v>
+        <v>747.33384509054</v>
       </c>
       <c r="W18" t="n">
-        <v>258.5401029899417</v>
+        <v>747.33384509054</v>
       </c>
       <c r="X18" t="n">
-        <v>258.5401029899417</v>
+        <v>747.33384509054</v>
       </c>
       <c r="Y18" t="n">
-        <v>68.07305546410173</v>
+        <v>556.8667975646999</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340406</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844269</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438551</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372137</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019083</v>
       </c>
       <c r="G20" t="n">
         <v>65.17929883267293</v>
@@ -5747,31 +5747,31 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897389</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J20" t="n">
-        <v>257.6252425490496</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="K20" t="n">
-        <v>257.6252425490496</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793436</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M20" t="n">
-        <v>385.3188915024954</v>
+        <v>198.6421382224197</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7061414357335</v>
+        <v>274.0293881556578</v>
       </c>
       <c r="O20" t="n">
-        <v>494.9828250691631</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="P20" t="n">
-        <v>564.0214906197992</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="Q20" t="n">
-        <v>564.0214906197992</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="R20" t="n">
         <v>564.0214906197992</v>
@@ -5786,13 +5786,13 @@
         <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557698</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338449</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059207</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y20" t="n">
         <v>540.9705567075482</v>
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="C21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I21" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N21" t="n">
         <v>538.8471199287434</v>
@@ -5853,28 +5853,28 @@
         <v>747.33384509054</v>
       </c>
       <c r="R21" t="n">
-        <v>747.33384509054</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S21" t="n">
-        <v>747.33384509054</v>
+        <v>449.0071505157817</v>
       </c>
       <c r="T21" t="n">
-        <v>747.33384509054</v>
+        <v>258.5401029899417</v>
       </c>
       <c r="U21" t="n">
-        <v>747.33384509054</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="V21" t="n">
-        <v>747.33384509054</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="W21" t="n">
-        <v>557.4487872623183</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="X21" t="n">
-        <v>366.9817397364784</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
     </row>
     <row r="22">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340414</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844276</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438559</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372144</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019088</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267294</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="K23" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="L23" t="n">
-        <v>201.7617434441223</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M23" t="n">
-        <v>388.438496724198</v>
+        <v>198.6421382224197</v>
       </c>
       <c r="N23" t="n">
-        <v>575.1152500042738</v>
+        <v>274.0293881556578</v>
       </c>
       <c r="O23" t="n">
-        <v>754.2495082023263</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="P23" t="n">
-        <v>754.2495082023263</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.2495082023263</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023263</v>
+        <v>564.0214906197992</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023263</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023263</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U23" t="n">
         <v>754.2495082023263</v>
@@ -6029,10 +6029,10 @@
         <v>689.6767164338451</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075486</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>228.5007717468577</v>
+        <v>747.33384509054</v>
       </c>
       <c r="C24" t="n">
-        <v>228.5007717468577</v>
+        <v>747.33384509054</v>
       </c>
       <c r="D24" t="n">
-        <v>228.5007717468577</v>
+        <v>747.33384509054</v>
       </c>
       <c r="E24" t="n">
-        <v>228.5007717468577</v>
+        <v>573.7706412119544</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410173</v>
+        <v>413.3429249291985</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410173</v>
+        <v>263.0960313032807</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410173</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
@@ -6090,28 +6090,28 @@
         <v>747.33384509054</v>
       </c>
       <c r="R24" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S24" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="T24" t="n">
-        <v>611.2645134234348</v>
+        <v>747.33384509054</v>
       </c>
       <c r="U24" t="n">
-        <v>420.7974658975948</v>
+        <v>747.33384509054</v>
       </c>
       <c r="V24" t="n">
-        <v>230.3304183717548</v>
+        <v>747.33384509054</v>
       </c>
       <c r="W24" t="n">
-        <v>230.3304183717548</v>
+        <v>747.33384509054</v>
       </c>
       <c r="X24" t="n">
-        <v>228.5007717468577</v>
+        <v>747.33384509054</v>
       </c>
       <c r="Y24" t="n">
-        <v>228.5007717468577</v>
+        <v>747.33384509054</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.892440079273</v>
+        <v>882.8924400792733</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962481</v>
+        <v>757.3316491962486</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471537</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693955</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577065</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7295791466274</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K26" t="n">
         <v>375.9831015629837</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946302</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6260,13 +6260,13 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W26" t="n">
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.2548485873</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>386.1140522280214</v>
+        <v>672.7070563209929</v>
       </c>
       <c r="C27" t="n">
-        <v>196.7017779609851</v>
+        <v>483.2947820539566</v>
       </c>
       <c r="D27" t="n">
-        <v>35.92166172201684</v>
+        <v>322.5146658149883</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201684</v>
+        <v>148.9514619364028</v>
       </c>
       <c r="F27" t="n">
         <v>35.92166172201684</v>
@@ -6312,7 +6312,7 @@
         <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066379</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N27" t="n">
         <v>577.9583061004877</v>
@@ -6324,31 +6324,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="R27" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="S27" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="T27" t="n">
-        <v>784.9266249210009</v>
+        <v>791.8422880327872</v>
       </c>
       <c r="U27" t="n">
-        <v>760.9255330009025</v>
+        <v>767.8411961126889</v>
       </c>
       <c r="V27" t="n">
-        <v>733.4690236601252</v>
+        <v>740.3846867719117</v>
       </c>
       <c r="W27" t="n">
-        <v>679.6936631460052</v>
+        <v>686.6093262577916</v>
       </c>
       <c r="X27" t="n">
-        <v>460.1856687627015</v>
+        <v>682.7245406300766</v>
       </c>
       <c r="Y27" t="n">
-        <v>386.1140522280214</v>
+        <v>672.7070563209929</v>
       </c>
     </row>
     <row r="28">
@@ -6361,49 +6361,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>82.46135946111666</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>82.46135946111666</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>82.46135946111666</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>82.46135946111666</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="G28" t="n">
-        <v>82.46135946111666</v>
+        <v>121.2998750914029</v>
       </c>
       <c r="H28" t="n">
-        <v>82.46135946111666</v>
+        <v>121.2998750914029</v>
       </c>
       <c r="I28" t="n">
-        <v>82.46135946111666</v>
+        <v>121.2998750914029</v>
       </c>
       <c r="J28" t="n">
-        <v>174.7670045977711</v>
+        <v>121.2998750914029</v>
       </c>
       <c r="K28" t="n">
-        <v>174.7670045977711</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="L28" t="n">
-        <v>174.7670045977711</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="M28" t="n">
-        <v>174.7670045977711</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="N28" t="n">
-        <v>174.7670045977711</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O28" t="n">
-        <v>174.7670045977711</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P28" t="n">
-        <v>174.7670045977711</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.1669904030535</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
         <v>266.2898381224434</v>
@@ -6421,10 +6421,10 @@
         <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1709292839819</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063871</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471545</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693962</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577072</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662743</v>
+        <v>63.72957914662736</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201682</v>
       </c>
       <c r="J29" t="n">
         <v>171.2683996847217</v>
@@ -6467,37 +6467,37 @@
         <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946303</v>
+        <v>634.088746694629</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191332</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870714</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100842</v>
+        <v>1796.083086100841</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169496</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182448</v>
       </c>
       <c r="U29" t="n">
         <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
         <v>1501.572351998503</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.7017779609851</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="C30" t="n">
-        <v>196.7017779609851</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201682</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201682</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432151</v>
+        <v>73.9137287543215</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066379</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004877</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R30" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="S30" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="T30" t="n">
-        <v>791.8422880327872</v>
+        <v>784.9266249210009</v>
       </c>
       <c r="U30" t="n">
-        <v>767.8411961126889</v>
+        <v>670.7438557714268</v>
       </c>
       <c r="V30" t="n">
-        <v>524.7614780163229</v>
+        <v>427.6641376750608</v>
       </c>
       <c r="W30" t="n">
-        <v>255.3629087466143</v>
+        <v>158.2655684053522</v>
       </c>
       <c r="X30" t="n">
-        <v>206.7192622700688</v>
+        <v>154.3807827776372</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.7017779609851</v>
+        <v>144.3632984685535</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.41321716505084</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="C31" t="n">
-        <v>71.41321716505084</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="D31" t="n">
-        <v>71.41321716505084</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="E31" t="n">
-        <v>71.41321716505084</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2079106701411</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="G31" t="n">
-        <v>189.5265996120338</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="H31" t="n">
-        <v>189.5265996120338</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="I31" t="n">
-        <v>189.5265996120338</v>
+        <v>166.0852708231038</v>
       </c>
       <c r="J31" t="n">
-        <v>189.5265996120338</v>
+        <v>166.0852708231038</v>
       </c>
       <c r="K31" t="n">
-        <v>189.5265996120338</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="L31" t="n">
-        <v>189.5265996120338</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="M31" t="n">
-        <v>189.5265996120338</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="N31" t="n">
-        <v>189.5265996120338</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398188</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063874</v>
+        <v>39.63307197063869</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201682</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792725</v>
+        <v>882.8924400792731</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962477</v>
+        <v>757.3316491962483</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471533</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693949</v>
+        <v>406.0748730693957</v>
       </c>
       <c r="G32" t="n">
-        <v>198.629559657706</v>
+        <v>198.6295596577067</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847216</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629835</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191338</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
         <v>1655.109002436483</v>
@@ -6731,19 +6731,19 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
         <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672.7070563209926</v>
+        <v>357.129494243741</v>
       </c>
       <c r="C33" t="n">
-        <v>672.7070563209926</v>
+        <v>357.129494243741</v>
       </c>
       <c r="D33" t="n">
-        <v>511.9269400820243</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="E33" t="n">
-        <v>338.3637362034387</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F33" t="n">
-        <v>177.9360199206828</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G33" t="n">
         <v>35.92166172201684</v>
@@ -6786,7 +6786,7 @@
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066379</v>
+        <v>373.007038206638</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004877</v>
@@ -6798,31 +6798,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="S33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="T33" t="n">
-        <v>791.8422880327872</v>
+        <v>784.9266249210009</v>
       </c>
       <c r="U33" t="n">
-        <v>767.8411961126887</v>
+        <v>760.9255330009025</v>
       </c>
       <c r="V33" t="n">
-        <v>740.3846867719114</v>
+        <v>733.4690236601252</v>
       </c>
       <c r="W33" t="n">
-        <v>686.6093262577914</v>
+        <v>679.6936631460052</v>
       </c>
       <c r="X33" t="n">
-        <v>682.7245406300764</v>
+        <v>582.7701873084134</v>
       </c>
       <c r="Y33" t="n">
-        <v>672.7070563209926</v>
+        <v>357.129494243741</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>82.4613594611166</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>150.0628426142654</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>221.135769715515</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="F34" t="n">
-        <v>266.2898381224438</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="G34" t="n">
-        <v>266.2898381224438</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="H34" t="n">
-        <v>266.2898381224438</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="I34" t="n">
-        <v>266.2898381224438</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="J34" t="n">
-        <v>266.2898381224438</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2898381224438</v>
+        <v>106.9945888232666</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398201</v>
+        <v>48.1709292839819</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063876</v>
+        <v>39.63307197063871</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.011976583746</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83667155797031</v>
+        <v>51.58890486516578</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83667155797031</v>
+        <v>244.942416002927</v>
       </c>
       <c r="K35" t="n">
-        <v>20.83667155797031</v>
+        <v>502.7962265328096</v>
       </c>
       <c r="L35" t="n">
-        <v>67.61000978826431</v>
+        <v>760.6500370626923</v>
       </c>
       <c r="M35" t="n">
-        <v>148.5303205114161</v>
+        <v>841.5703477858441</v>
       </c>
       <c r="N35" t="n">
-        <v>223.9175704446542</v>
+        <v>916.9575977190823</v>
       </c>
       <c r="O35" t="n">
-        <v>415.50586377168</v>
+        <v>951.2342813525119</v>
       </c>
       <c r="P35" t="n">
-        <v>669.951727694713</v>
+        <v>951.2342813525119</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.512111304001</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9393577091843</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912297</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.520338742662</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
         <v>926.0185337114403</v>
@@ -6980,7 +6980,7 @@
         <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07012156655</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>367.1834951066303</v>
+        <v>342.0445040796944</v>
       </c>
       <c r="C36" t="n">
-        <v>367.1834951066303</v>
+        <v>342.0445040796944</v>
       </c>
       <c r="D36" t="n">
-        <v>367.1834951066303</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="E36" t="n">
-        <v>367.1834951066303</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F36" t="n">
-        <v>206.7557788238744</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G36" t="n">
-        <v>56.50888519795669</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027499</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
@@ -7050,16 +7050,16 @@
         <v>771.3600410982377</v>
       </c>
       <c r="V36" t="n">
-        <v>771.3600410982377</v>
+        <v>528.2803230018718</v>
       </c>
       <c r="W36" t="n">
-        <v>771.3600410982377</v>
+        <v>342.0445040796944</v>
       </c>
       <c r="X36" t="n">
-        <v>771.3600410982377</v>
+        <v>342.0445040796944</v>
       </c>
       <c r="Y36" t="n">
-        <v>545.7193480335654</v>
+        <v>342.0445040796944</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837461</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248355</v>
+        <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
         <v>377.2770891590286</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144264</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516583</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>174.7403346447172</v>
       </c>
       <c r="K38" t="n">
-        <v>244.942416002927</v>
+        <v>432.5941451745999</v>
       </c>
       <c r="L38" t="n">
-        <v>291.715754233221</v>
+        <v>479.3674834048939</v>
       </c>
       <c r="M38" t="n">
-        <v>372.6360649563728</v>
+        <v>560.2877941280457</v>
       </c>
       <c r="N38" t="n">
-        <v>448.023314889611</v>
+        <v>635.6750440612839</v>
       </c>
       <c r="O38" t="n">
-        <v>669.9517276947128</v>
+        <v>669.9517276947134</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947128</v>
+        <v>669.9517276947134</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5121113040008</v>
+        <v>850.5121113040013</v>
       </c>
       <c r="R38" t="n">
-        <v>926.939357709184</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912295</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426621</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114403</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742193</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027499</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620933</v>
@@ -7281,22 +7281,22 @@
         <v>771.3600410982377</v>
       </c>
       <c r="T39" t="n">
-        <v>771.3600410982377</v>
+        <v>766.6299776781334</v>
       </c>
       <c r="U39" t="n">
-        <v>746.5136713857498</v>
+        <v>527.0056770024463</v>
       </c>
       <c r="V39" t="n">
-        <v>503.4339532893839</v>
+        <v>283.9259589060804</v>
       </c>
       <c r="W39" t="n">
-        <v>240.3446659412739</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676711</v>
+        <v>818.5041758676717</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002148</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418007</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173169</v>
+        <v>478.6394038173175</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641689</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
-        <v>190.670379421188</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673108</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4075114924615</v>
+        <v>707.9998061668182</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3278222156132</v>
+        <v>1027.506963659183</v>
       </c>
       <c r="N41" t="n">
-        <v>918.3019189180646</v>
+        <v>1102.894213592421</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514942</v>
+        <v>1375.757743995064</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S41" t="n">
         <v>1385.107999142262</v>
@@ -7448,13 +7448,13 @@
         <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X41" t="n">
         <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590206</v>
+        <v>952.9389490590213</v>
       </c>
     </row>
     <row r="42">
@@ -7470,28 +7470,28 @@
         <v>269.9210092693273</v>
       </c>
       <c r="D42" t="n">
-        <v>269.9210092693273</v>
+        <v>109.140893030359</v>
       </c>
       <c r="E42" t="n">
-        <v>269.9210092693273</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F42" t="n">
-        <v>269.9210092693273</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G42" t="n">
-        <v>208.0609933972183</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H42" t="n">
-        <v>81.05716689067754</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05716689067754</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K42" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292703</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062233</v>
+        <v>101.863339197583</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062233</v>
+        <v>101.863339197583</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062233</v>
+        <v>101.863339197583</v>
       </c>
       <c r="F43" t="n">
-        <v>129.1183349635734</v>
+        <v>101.863339197583</v>
       </c>
       <c r="G43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085603</v>
+        <v>101.863339197583</v>
       </c>
       <c r="Q43" t="n">
         <v>130.1759968085603</v>
@@ -7600,19 +7600,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.504175867672</v>
+        <v>818.5041758676718</v>
       </c>
       <c r="C44" t="n">
         <v>708.1923754002157</v>
@@ -7631,49 +7631,49 @@
         <v>610.4395019418014</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173173</v>
+        <v>478.6394038173174</v>
       </c>
       <c r="F44" t="n">
         <v>314.7985606641696</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1611646770911</v>
+        <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J44" t="n">
-        <v>190.670379421188</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6396211673108</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L44" t="n">
-        <v>704.9153447582587</v>
+        <v>469.4129593976049</v>
       </c>
       <c r="M44" t="n">
-        <v>1024.422502250624</v>
+        <v>617.6804247904637</v>
       </c>
       <c r="N44" t="n">
-        <v>1099.809752183862</v>
+        <v>693.0676747237019</v>
       </c>
       <c r="O44" t="n">
-        <v>1134.086435817291</v>
+        <v>965.9312051263448</v>
       </c>
       <c r="P44" t="n">
-        <v>1357.780066433129</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="Q44" t="n">
-        <v>1357.780066433129</v>
+        <v>1339.432986044275</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>470.5016584985004</v>
+        <v>43.92890812082163</v>
       </c>
       <c r="C45" t="n">
-        <v>470.5016584985004</v>
+        <v>43.92890812082163</v>
       </c>
       <c r="D45" t="n">
-        <v>470.5016584985004</v>
+        <v>43.92890812082163</v>
       </c>
       <c r="E45" t="n">
-        <v>296.9384546199149</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F45" t="n">
-        <v>136.510738337159</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G45" t="n">
-        <v>136.510738337159</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H45" t="n">
-        <v>136.510738337159</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K45" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292703</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947453</v>
@@ -7749,28 +7749,28 @@
         <v>778.5924711308897</v>
       </c>
       <c r="R45" t="n">
-        <v>736.0934022636969</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="S45" t="n">
-        <v>736.0934022636969</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="T45" t="n">
-        <v>736.0934022636969</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="U45" t="n">
-        <v>496.4691015880099</v>
+        <v>538.9681704552027</v>
       </c>
       <c r="V45" t="n">
-        <v>496.4691015880099</v>
+        <v>538.9681704552027</v>
       </c>
       <c r="W45" t="n">
-        <v>470.5016584985004</v>
+        <v>269.569601185494</v>
       </c>
       <c r="X45" t="n">
-        <v>470.5016584985004</v>
+        <v>269.569601185494</v>
       </c>
       <c r="Y45" t="n">
-        <v>470.5016584985004</v>
+        <v>43.92890812082163</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1759968085602</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697664</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V46" t="n">
-        <v>77.8811138844992</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
   </sheetData>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7575910532781</v>
+        <v>195.7575910532782</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566237</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.1492627370809</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154582</v>
+        <v>36.30722326487674</v>
       </c>
       <c r="G11" t="n">
         <v>240.5081876210496</v>
       </c>
       <c r="H11" t="n">
-        <v>164.8187179614328</v>
+        <v>12.72280284653999</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718777</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938946</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.757591053278</v>
+        <v>7.195214002696588</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566235</v>
+        <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.1492627370809</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>42.25291400267724</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210495</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384194</v>
+        <v>62.66716559384204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550877</v>
       </c>
       <c r="T14" t="n">
-        <v>44.134761160655</v>
+        <v>44.1347611606551</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673096</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012116</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938946</v>
+        <v>160.721920586187</v>
       </c>
     </row>
     <row r="15">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1165811.99391241</v>
+        <v>1165811.993912409</v>
       </c>
     </row>
     <row r="6">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="C2" t="n">
+        <v>264579.5985529377</v>
+      </c>
+      <c r="D2" t="n">
         <v>264579.5985529379</v>
-      </c>
-      <c r="D2" t="n">
-        <v>264579.5985529378</v>
       </c>
       <c r="E2" t="n">
         <v>227997.0267061437</v>
@@ -26326,7 +26326,7 @@
         <v>227997.0267061437</v>
       </c>
       <c r="G2" t="n">
-        <v>265115.5646575605</v>
+        <v>265115.5646575606</v>
       </c>
       <c r="H2" t="n">
         <v>265115.5646575605</v>
@@ -26335,13 +26335,13 @@
         <v>265115.5646575607</v>
       </c>
       <c r="J2" t="n">
-        <v>265115.5646575606</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="K2" t="n">
-        <v>265115.5646575606</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="L2" t="n">
-        <v>265115.5646575607</v>
+        <v>265115.5646575605</v>
       </c>
       <c r="M2" t="n">
         <v>265115.5646575608</v>
@@ -26350,10 +26350,10 @@
         <v>265115.5646575608</v>
       </c>
       <c r="O2" t="n">
+        <v>265115.5646575607</v>
+      </c>
+      <c r="P2" t="n">
         <v>265115.5646575608</v>
-      </c>
-      <c r="P2" t="n">
-        <v>265115.5646575607</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842063</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400476</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243413</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400473</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.1601414597</v>
+        <v>46874.16014145961</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>331148.6906652545</v>
+        <v>331148.6906652543</v>
       </c>
       <c r="F4" t="n">
         <v>331148.6906652544</v>
@@ -26433,10 +26433,10 @@
         <v>401611.6670699618</v>
       </c>
       <c r="H4" t="n">
-        <v>401611.6670699617</v>
+        <v>401611.6670699618</v>
       </c>
       <c r="I4" t="n">
-        <v>401611.6670699617</v>
+        <v>401611.6670699618</v>
       </c>
       <c r="J4" t="n">
         <v>402517.6175033181</v>
@@ -26445,19 +26445,19 @@
         <v>402517.617503318</v>
       </c>
       <c r="L4" t="n">
-        <v>402517.617503318</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="M4" t="n">
         <v>401692.5905255168</v>
       </c>
       <c r="N4" t="n">
-        <v>401692.5905255168</v>
+        <v>401692.5905255167</v>
       </c>
       <c r="O4" t="n">
         <v>402079.8338982546</v>
       </c>
       <c r="P4" t="n">
-        <v>402079.8338982545</v>
+        <v>402079.8338982546</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
+        <v>47453.77647951489</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47453.77647951488</v>
+      </c>
+      <c r="L5" t="n">
         <v>47453.7764795149</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47453.77647951489</v>
-      </c>
-      <c r="L5" t="n">
-        <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.01366600499</v>
+        <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209859.1431819975</v>
+        <v>-209863.6095662026</v>
       </c>
       <c r="C6" t="n">
-        <v>-209859.1431819975</v>
+        <v>-209863.6095662028</v>
       </c>
       <c r="D6" t="n">
-        <v>-209859.1431819975</v>
+        <v>-209863.6095662026</v>
       </c>
       <c r="E6" t="n">
-        <v>-412128.4522663358</v>
+        <v>-412437.7734159306</v>
       </c>
       <c r="F6" t="n">
-        <v>-131815.6100821294</v>
+        <v>-132124.9312317244</v>
       </c>
       <c r="G6" t="n">
-        <v>-270448.1952277255</v>
+        <v>-270448.1952277254</v>
       </c>
       <c r="H6" t="n">
-        <v>-175172.2412537206</v>
+        <v>-175172.2412537207</v>
       </c>
       <c r="I6" t="n">
         <v>-175172.2412537205</v>
@@ -26546,19 +26546,19 @@
         <v>-328500.8328496136</v>
       </c>
       <c r="K6" t="n">
-        <v>-184855.8293252723</v>
+        <v>-184855.8293252724</v>
       </c>
       <c r="L6" t="n">
-        <v>-280131.783299277</v>
+        <v>-280131.7832992773</v>
       </c>
       <c r="M6" t="n">
-        <v>-224366.1996754207</v>
+        <v>-224366.1996754206</v>
       </c>
       <c r="N6" t="n">
-        <v>-177492.039533961</v>
+        <v>-177492.0395339609</v>
       </c>
       <c r="O6" t="n">
-        <v>-253167.9878088188</v>
+        <v>-253167.9878088189</v>
       </c>
       <c r="P6" t="n">
         <v>-180764.5059922187</v>
@@ -26695,7 +26695,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26710,10 +26710,10 @@
         <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26811,25 +26811,25 @@
         <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
+        <v>449.0207715252104</v>
+      </c>
+      <c r="K4" t="n">
+        <v>449.0207715252103</v>
+      </c>
+      <c r="L4" t="n">
         <v>449.0207715252105</v>
       </c>
-      <c r="K4" t="n">
-        <v>449.0207715252105</v>
-      </c>
-      <c r="L4" t="n">
-        <v>449.0207715252104</v>
-      </c>
       <c r="M4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827792</v>
+        <v>350.8637698827794</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827792</v>
+        <v>350.8637698827794</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052671</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682462</v>
+        <v>58.59270017682451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406667</v>
+        <v>63.30917227406664</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815035</v>
+        <v>90.40537540815041</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052671</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>160.0433975822947</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
-        <v>178.3296493245552</v>
+        <v>160.0433975822948</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>124.7594975951205</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,13 +28184,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7337882414754</v>
+        <v>47.05686983634942</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>178.3296493245552</v>
@@ -28245,52 +28245,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D13" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F13" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G13" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="E13" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="F13" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="G13" t="n">
-        <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="I13" t="n">
-        <v>164.8484353357569</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2289512774728</v>
+        <v>158.7064812180028</v>
       </c>
       <c r="K13" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245552</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="O13" t="n">
-        <v>37.45757960830505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P13" t="n">
-        <v>86.84588435805159</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245553</v>
+        <v>160.0433975822948</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>144.999744902117</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017748</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>98.07357599253884</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245553</v>
+        <v>122.951445152762</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245553</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
         <v>168.7006242014745</v>
@@ -28509,49 +28509,49 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M16" t="n">
-        <v>25.19323846374672</v>
+        <v>163.4934855171335</v>
       </c>
       <c r="N16" t="n">
-        <v>152.9792977190506</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O16" t="n">
-        <v>178.3296493245553</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>232.4873490570144</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273183</v>
+        <v>76.4204753269965</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017748</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q17" t="n">
         <v>89.67545097688966</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S17" t="n">
         <v>297.4245917920612</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>158.904543511763</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28664,7 +28664,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
         <v>191.5874518930719</v>
@@ -28700,10 +28700,10 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>52.08654386482067</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>106.0697942984351</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28749,19 +28749,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28822,10 +28822,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886094</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273183</v>
+        <v>6.684449518273169</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>84.7796784889008</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688966</v>
+        <v>245.4097000958762</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
@@ -28898,7 +28898,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>30.95266261449535</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280576689302</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.71837632707218</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.75053738888903</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.82190908344404</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28986,19 +28986,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29056,43 +29056,43 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802783</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273183</v>
+        <v>6.684449518273169</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>146.320782388508</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017748</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688966</v>
+        <v>245.4097000958762</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29123,19 +29123,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>40.01826253975952</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
         <v>191.5874518930719</v>
@@ -29171,16 +29171,16 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>48.6656806183486</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>52.08654386482067</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>215.5015642808224</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,19 +29223,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29360,10 +29360,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>46.92393690768623</v>
       </c>
       <c r="G27" t="n">
         <v>148.7444246896586</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504341</v>
@@ -29417,10 +29417,10 @@
         <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.0533857646923</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680328</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29442,10 +29442,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7006242014745</v>
+        <v>180.4011493169247</v>
       </c>
       <c r="H28" t="n">
         <v>165.8230575663656</v>
@@ -29454,31 +29454,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
+        <v>120.2289512774728</v>
+      </c>
+      <c r="K28" t="n">
         <v>213.4669766680328</v>
       </c>
-      <c r="K28" t="n">
-        <v>67.01246855587064</v>
-      </c>
       <c r="L28" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.4669766680328</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>209.6078786471072</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
         <v>213.4669766680328</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680316</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29609,7 +29609,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>52.45818464705464</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668499</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
@@ -29642,10 +29642,10 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680327</v>
+        <v>124.1871162108518</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,10 +29654,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>169.1557044276906</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,37 +29679,37 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4669766680327</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.4669766680327</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587064</v>
+        <v>168.2292032016682</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O31" t="n">
-        <v>114.9962043662947</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
@@ -29718,25 +29718,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="33">
@@ -29834,13 +29834,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8.150210072979235</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
         <v>125.7337882414754</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668499</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
@@ -29879,22 +29879,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>121.3586733602547</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F34" t="n">
-        <v>184.5370523264555</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7006242014745</v>
@@ -29934,19 +29934,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055726</v>
+        <v>193.033699671948</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
@@ -29955,25 +29955,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="35">
@@ -30004,16 +30004,16 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802783</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273183</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2125982824128</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,25 +30022,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>158.9006158521174</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0596768448573</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0596768448573</v>
+        <v>181.1898919324493</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448573</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0596768448573</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
-        <v>90.41829673788888</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
         <v>107.3572203790713</v>
@@ -30122,16 +30122,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>82.33112284405601</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30165,25 +30165,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2289512774728</v>
+        <v>155.7844069929974</v>
       </c>
       <c r="K37" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O37" t="n">
-        <v>73.01303532382963</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30241,13 +30241,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448573</v>
+        <v>232.2113454801964</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273183</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,10 +30259,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>189.5472011835073</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017748</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
@@ -30353,19 +30353,19 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>210.28743616</v>
       </c>
       <c r="U39" t="n">
-        <v>212.6301516535672</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382743</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30402,25 +30402,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2289512774728</v>
+        <v>155.7844069929974</v>
       </c>
       <c r="K40" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M40" t="n">
-        <v>60.74869417927129</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30487,28 +30487,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>54.53995161096637</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>240.9968149183972</v>
+        <v>24.48835484906448</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R41" t="n">
-        <v>240.9968149183972</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T41" t="n">
         <v>240.9968149183972</v>
@@ -30542,25 +30542,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>91.56649831446038</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>87.50300897627072</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30627,10 +30627,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>240.9968149183972</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7689694994411</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H43" t="n">
         <v>165.8230575663656</v>
@@ -30645,22 +30645,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>155.8030087949973</v>
       </c>
       <c r="R43" t="n">
         <v>203.4231839810569</v>
@@ -30724,22 +30724,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>237.8811973339938</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>68.02742895929998</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.67545097688966</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R44" t="n">
         <v>240.9968149183972</v>
@@ -30748,7 +30748,7 @@
         <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30782,10 +30782,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.1263633749024</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30794,7 +30794,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
         <v>52.45818464705464</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>92.63456017191325</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
         <v>191.5874518930719</v>
@@ -30836,13 +30836,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30882,22 +30882,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055726</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984361</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O46" t="n">
-        <v>140.5958576062221</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R46" t="n">
         <v>203.4231839810569</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I11" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q11" t="n">
         <v>43.95737672232048</v>
@@ -31786,10 +31786,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U11" t="n">
         <v>0.03256441192055316</v>
@@ -31832,13 +31832,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K12" t="n">
         <v>35.16890724972323</v>
@@ -31847,28 +31847,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218917</v>
@@ -31914,7 +31914,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146575</v>
@@ -31923,34 +31923,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O13" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q13" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I14" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q14" t="n">
         <v>43.95737672232048</v>
@@ -32023,10 +32023,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U14" t="n">
         <v>0.03256441192055316</v>
@@ -32069,13 +32069,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K15" t="n">
         <v>35.16890724972323</v>
@@ -32084,28 +32084,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R15" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218917</v>
@@ -32151,7 +32151,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146575</v>
@@ -32160,34 +32160,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O16" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q16" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I17" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q17" t="n">
         <v>43.95737672232048</v>
@@ -32260,10 +32260,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U17" t="n">
         <v>0.03256441192055316</v>
@@ -32306,13 +32306,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K18" t="n">
         <v>35.16890724972323</v>
@@ -32321,28 +32321,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R18" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218917</v>
@@ -32388,7 +32388,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146575</v>
@@ -32397,34 +32397,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O19" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q19" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I20" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q20" t="n">
         <v>43.95737672232048</v>
@@ -32497,10 +32497,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U20" t="n">
         <v>0.03256441192055316</v>
@@ -32543,13 +32543,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K21" t="n">
         <v>35.16890724972323</v>
@@ -32558,28 +32558,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R21" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218917</v>
@@ -32625,7 +32625,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146575</v>
@@ -32634,34 +32634,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O22" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q22" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I23" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q23" t="n">
         <v>43.95737672232048</v>
@@ -32734,10 +32734,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U23" t="n">
         <v>0.03256441192055316</v>
@@ -32780,13 +32780,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K24" t="n">
         <v>35.16890724972323</v>
@@ -32795,28 +32795,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R24" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218917</v>
@@ -32862,7 +32862,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146575</v>
@@ -32871,34 +32871,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O25" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q25" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I26" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q26" t="n">
         <v>43.95737672232048</v>
@@ -32971,10 +32971,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U26" t="n">
         <v>0.03256441192055316</v>
@@ -33017,13 +33017,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K27" t="n">
         <v>35.16890724972323</v>
@@ -33032,28 +33032,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R27" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218917</v>
@@ -33099,7 +33099,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146575</v>
@@ -33108,34 +33108,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O28" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q28" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I29" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q29" t="n">
         <v>43.95737672232048</v>
@@ -33208,10 +33208,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U29" t="n">
         <v>0.03256441192055316</v>
@@ -33254,13 +33254,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K30" t="n">
         <v>35.16890724972323</v>
@@ -33269,28 +33269,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R30" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218917</v>
@@ -33336,7 +33336,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146575</v>
@@ -33345,34 +33345,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O31" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q31" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I32" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q32" t="n">
         <v>43.95737672232048</v>
@@ -33445,10 +33445,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U32" t="n">
         <v>0.03256441192055316</v>
@@ -33491,13 +33491,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K33" t="n">
         <v>35.16890724972323</v>
@@ -33506,28 +33506,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R33" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218917</v>
@@ -33573,7 +33573,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146575</v>
@@ -33582,34 +33582,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M34" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O34" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q34" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I35" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q35" t="n">
         <v>43.95737672232048</v>
@@ -33682,10 +33682,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U35" t="n">
         <v>0.03256441192055316</v>
@@ -33728,13 +33728,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K36" t="n">
         <v>35.16890724972323</v>
@@ -33743,28 +33743,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R36" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218917</v>
@@ -33810,7 +33810,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146575</v>
@@ -33819,34 +33819,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M37" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O37" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q37" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I38" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q38" t="n">
         <v>43.95737672232048</v>
@@ -33919,10 +33919,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U38" t="n">
         <v>0.03256441192055316</v>
@@ -33965,13 +33965,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K39" t="n">
         <v>35.16890724972323</v>
@@ -33980,28 +33980,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R39" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218917</v>
@@ -34047,7 +34047,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146575</v>
@@ -34056,34 +34056,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M40" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O40" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q40" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I41" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q41" t="n">
         <v>43.95737672232048</v>
@@ -34156,10 +34156,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U41" t="n">
         <v>0.03256441192055316</v>
@@ -34202,13 +34202,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K42" t="n">
         <v>35.16890724972323</v>
@@ -34217,28 +34217,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R42" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218917</v>
@@ -34284,7 +34284,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146575</v>
@@ -34293,34 +34293,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M43" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O43" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q43" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I44" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517634</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723883</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613062</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q44" t="n">
         <v>43.95737672232048</v>
@@ -34393,10 +34393,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995074</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U44" t="n">
         <v>0.03256441192055316</v>
@@ -34439,13 +34439,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421369</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645662</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K45" t="n">
         <v>35.16890724972323</v>
@@ -34454,28 +34454,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193118</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810434</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R45" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S45" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841222</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218917</v>
@@ -34521,7 +34521,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222542</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146575</v>
@@ -34530,34 +34530,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362619</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M46" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252965</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O46" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q46" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119914</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127148</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831298</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210181</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.29029764426683</v>
+        <v>101.5765493865273</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6451998062821</v>
+        <v>153.3589480640216</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276104</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443778</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766558</v>
+        <v>88.6541983476655</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7127286595870714</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.87246835258281</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384454</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233026</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.4027671061086</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.629025123080718</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818963</v>
+        <v>12.50659175818955</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.48121398879829</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>38.47752994052997</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>146.200241873998</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.8325570947117</v>
+        <v>161.8325570947115</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.8720697162501</v>
       </c>
       <c r="P13" t="n">
-        <v>28.38551504344282</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.12528458105025</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>101.5765493865273</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062821</v>
+        <v>153.3589480640216</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O14" t="n">
-        <v>179.622657663157</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766561</v>
+        <v>88.6541983476655</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7127286595871851</v>
+        <v>0.7127286595870714</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.87246835258281</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.65350811233017</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.40276710610851</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>111.3171807686845</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.3002470533868</v>
       </c>
       <c r="N16" t="n">
-        <v>136.482205489207</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099465</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105017</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J17" t="n">
-        <v>155.7342491189866</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>69.73602580872333</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276104</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,10 +35905,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.91525422199729</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T17" t="n">
         <v>74.96018130685094</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515618</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,37 +36115,37 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P20" t="n">
-        <v>69.73602580872333</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>155.7342491189865</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199729</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T20" t="n">
         <v>74.96018130685094</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>188.5623770505816</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5623770505816</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N23" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O23" t="n">
-        <v>180.943695149548</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>155.7342491189865</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515618</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36452,7 +36452,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497596</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606042</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.54009444958612</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.70052511545027</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.23802539056</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>146.4545081121621</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26261192452777</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.184694666050327</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497596</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602478</v>
       </c>
       <c r="M29" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P29" t="n">
         <v>198.4233239878553</v>
@@ -36853,7 +36853,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.85005600306465</v>
+        <v>35.85005600306468</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.00979569606042</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,22 +36975,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.54009444958609</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.7663524665583</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.6185413322759</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>101.2167346457975</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>77.53862475798967</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q32" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,16 +37203,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606037</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28432641732201</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.79083545580772</v>
+        <v>71.79083545580778</v>
       </c>
       <c r="F34" t="n">
-        <v>45.61017010800882</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>160.9042922213907</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.06286192646007</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221615</v>
+        <v>260.458394474629</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O35" t="n">
-        <v>193.5235286131574</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646798</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3842258679677</v>
+        <v>91.51444095555958</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1992387931144</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479341</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59526635964706</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357109</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646012</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>155.4582455421686</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O38" t="n">
-        <v>224.1701139445473</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679677</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1992387931144</v>
+        <v>77.19923879311435</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479341</v>
+        <v>44.55033927479335</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964706</v>
+        <v>49.59526635964701</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357109</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37783,28 +37783,28 @@
         <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>101.7857478031825</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914319</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246983</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276104</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382197</v>
+        <v>9.444702168887011</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665427</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833328</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318693</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>74.53963394642486</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37923,10 +37923,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.0699326999506</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.068345297966605</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.5986440514923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>234.3123654001241</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>285.12699352621</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7345025175404</v>
+        <v>149.7651165584432</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630114</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276104</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382198</v>
+        <v>225.9531622382197</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R44" t="n">
-        <v>46.1363768666543</v>
+        <v>46.13637686665427</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515623</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
